--- a/exp1_5.xlsx
+++ b/exp1_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ne\OpenNE-master\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D05309-6E32-49AF-8C1E-41A86D6CEECB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4306044B-8DBB-4F04-BFD1-5B1D9DF606A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6870" firstSheet="2" activeTab="8" xr2:uid="{10403AC5-A414-4897-83F9-EF63EFA0D64E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6870" firstSheet="2" activeTab="9" xr2:uid="{10403AC5-A414-4897-83F9-EF63EFA0D64E}"/>
   </bookViews>
   <sheets>
     <sheet name="第一阶段结果" sheetId="3" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="dblp" sheetId="10" r:id="rId7"/>
     <sheet name="MHWalk" sheetId="11" r:id="rId8"/>
     <sheet name="sample" sheetId="12" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">blogcatalog!$A$2:$N$22</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="48">
   <si>
     <t>Micro-F1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -219,6 +220,10 @@
   </si>
   <si>
     <t>sample</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lpwalk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -681,7 +686,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -927,6 +932,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2333,7 +2341,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:G1"/>
+      <selection activeCell="B3" sqref="B3:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2679,12 +2687,702 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5950492-1FEA-4A10-AF9D-8EF04C409C17}">
+  <dimension ref="A1:U18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Q12" sqref="Q12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="81" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="81"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="81"/>
+      <c r="K1" s="81"/>
+      <c r="L1" s="81"/>
+      <c r="N1" s="81" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="81"/>
+      <c r="P1" s="81"/>
+      <c r="Q1" s="81"/>
+      <c r="R1" s="81" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="81"/>
+      <c r="T1" s="81"/>
+      <c r="U1" s="81"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" t="s">
+        <v>32</v>
+      </c>
+      <c r="N2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>47</v>
+      </c>
+      <c r="S2" t="s">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>80513</v>
+      </c>
+      <c r="D3">
+        <v>5899882</v>
+      </c>
+      <c r="E3">
+        <v>195</v>
+      </c>
+      <c r="F3">
+        <v>146.55725162396101</v>
+      </c>
+      <c r="G3">
+        <v>7.9245153585886499</v>
+      </c>
+      <c r="J3">
+        <v>8336.1400589942896</v>
+      </c>
+      <c r="K3">
+        <v>112391.386266708</v>
+      </c>
+      <c r="L3">
+        <v>29350.796478271401</v>
+      </c>
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3">
+        <v>0.40383864523799601</v>
+      </c>
+      <c r="P3">
+        <v>0.40593918658031902</v>
+      </c>
+      <c r="Q3">
+        <v>0.37952179140138398</v>
+      </c>
+      <c r="S3">
+        <v>0.28235729608038901</v>
+      </c>
+      <c r="T3">
+        <v>0.279218266154796</v>
+      </c>
+      <c r="U3">
+        <v>0.233019456283446</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O4">
+        <v>0.37923435881353501</v>
+      </c>
+      <c r="P4">
+        <v>0.38279541557345398</v>
+      </c>
+      <c r="Q4">
+        <v>0.32900841130221398</v>
+      </c>
+      <c r="S4">
+        <v>0.230609314538574</v>
+      </c>
+      <c r="T4">
+        <v>0.20610579780688401</v>
+      </c>
+      <c r="U4">
+        <v>0.123864640500239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5">
+        <v>0.395611827038028</v>
+      </c>
+      <c r="P5">
+        <v>0.393820927930218</v>
+      </c>
+      <c r="Q5">
+        <v>0.36768104170106902</v>
+      </c>
+      <c r="S5">
+        <v>0.27958278378186102</v>
+      </c>
+      <c r="T5">
+        <v>0.27524640309612403</v>
+      </c>
+      <c r="U5">
+        <v>0.229600960713645</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6">
+        <v>0.43506590960207198</v>
+      </c>
+      <c r="P6">
+        <v>0.444062901628621</v>
+      </c>
+      <c r="Q6">
+        <v>0.43341396674935001</v>
+      </c>
+      <c r="S6">
+        <v>0.24946708127071299</v>
+      </c>
+      <c r="T6">
+        <v>0.26755606225614098</v>
+      </c>
+      <c r="U6">
+        <v>0.249255348821527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>10312</v>
+      </c>
+      <c r="D7">
+        <v>333983</v>
+      </c>
+      <c r="E7">
+        <v>39</v>
+      </c>
+      <c r="F7">
+        <v>64.775601241272298</v>
+      </c>
+      <c r="G7">
+        <v>4.5849798835720499</v>
+      </c>
+      <c r="I7">
+        <v>1011.37382245063</v>
+      </c>
+      <c r="J7">
+        <v>562.27331185340802</v>
+      </c>
+      <c r="K7">
+        <v>2856.51597142219</v>
+      </c>
+      <c r="L7">
+        <v>477.087243318557</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7" s="82">
+        <v>0.40881082286304599</v>
+      </c>
+      <c r="O7">
+        <v>0.39296294772479701</v>
+      </c>
+      <c r="P7">
+        <v>0.39762263392829</v>
+      </c>
+      <c r="Q7">
+        <v>0.35681739705145699</v>
+      </c>
+      <c r="R7" s="82">
+        <v>0.277329813140754</v>
+      </c>
+      <c r="S7">
+        <v>0.25130046657392502</v>
+      </c>
+      <c r="T7">
+        <v>0.261037921302474</v>
+      </c>
+      <c r="U7">
+        <v>0.19580386677929501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N8" s="82">
+        <v>0.36342131780792403</v>
+      </c>
+      <c r="O8">
+        <v>0.33629482636451402</v>
+      </c>
+      <c r="P8">
+        <v>0.35691018830558102</v>
+      </c>
+      <c r="Q8">
+        <v>0.31467942145126798</v>
+      </c>
+      <c r="R8" s="82">
+        <v>0.22738371893977499</v>
+      </c>
+      <c r="S8">
+        <v>0.20514765322922399</v>
+      </c>
+      <c r="T8">
+        <v>0.22284625449436299</v>
+      </c>
+      <c r="U8">
+        <v>0.13522834498781799</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" s="82">
+        <v>0.416557223682755</v>
+      </c>
+      <c r="O9">
+        <v>0.40079565744179602</v>
+      </c>
+      <c r="P9">
+        <v>0.401595034252415</v>
+      </c>
+      <c r="Q9">
+        <v>0.35842584336365602</v>
+      </c>
+      <c r="R9" s="82">
+        <v>0.288875629551545</v>
+      </c>
+      <c r="S9">
+        <v>0.26058560652817497</v>
+      </c>
+      <c r="T9">
+        <v>0.26068162653567001</v>
+      </c>
+      <c r="U9">
+        <v>0.19436882452036999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" s="82">
+        <v>0.423877505319535</v>
+      </c>
+      <c r="O10">
+        <v>0.41779120934919101</v>
+      </c>
+      <c r="P10">
+        <v>0.41869332188220199</v>
+      </c>
+      <c r="Q10">
+        <v>0.38605386967424099</v>
+      </c>
+      <c r="R10" s="82">
+        <v>0.26638440045867701</v>
+      </c>
+      <c r="S10">
+        <v>0.243577536209579</v>
+      </c>
+      <c r="T10">
+        <v>0.27139346482618099</v>
+      </c>
+      <c r="U10">
+        <v>0.222561524081656</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>2708</v>
+      </c>
+      <c r="D11">
+        <v>5429</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>3.8980797636632198</v>
+      </c>
+      <c r="G11">
+        <v>5.9617535822724103E-2</v>
+      </c>
+      <c r="I11">
+        <v>76.053605318069401</v>
+      </c>
+      <c r="J11">
+        <v>90.324711322784395</v>
+      </c>
+      <c r="K11">
+        <v>57.118313074111903</v>
+      </c>
+      <c r="L11">
+        <v>132.96834754943799</v>
+      </c>
+      <c r="M11" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11">
+        <v>0.81964549483013305</v>
+      </c>
+      <c r="O11" s="82">
+        <v>0.82880354505169795</v>
+      </c>
+      <c r="P11">
+        <v>0.81536189069423903</v>
+      </c>
+      <c r="Q11">
+        <v>0.42378138847858199</v>
+      </c>
+      <c r="R11">
+        <v>0.81115366983542003</v>
+      </c>
+      <c r="S11" s="82">
+        <v>0.81952239852758302</v>
+      </c>
+      <c r="T11">
+        <v>0.80702839101841095</v>
+      </c>
+      <c r="U11">
+        <v>0.28291065009708699</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M12" t="s">
+        <v>29</v>
+      </c>
+      <c r="N12">
+        <v>0.70410253057641403</v>
+      </c>
+      <c r="O12" s="82">
+        <v>0.72977922783067295</v>
+      </c>
+      <c r="P12">
+        <v>0.69600862289068799</v>
+      </c>
+      <c r="Q12">
+        <v>0.35215487931615402</v>
+      </c>
+      <c r="R12">
+        <v>0.67556872144881197</v>
+      </c>
+      <c r="S12" s="82">
+        <v>0.70408291628666098</v>
+      </c>
+      <c r="T12">
+        <v>0.67831883157806505</v>
+      </c>
+      <c r="U12">
+        <v>0.12311373752609001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13">
+        <v>0.84917167444797703</v>
+      </c>
+      <c r="O13" s="82">
+        <v>0.85530507802635702</v>
+      </c>
+      <c r="P13">
+        <v>0.84683759451379303</v>
+      </c>
+      <c r="Q13">
+        <v>0.42585215754251499</v>
+      </c>
+      <c r="R13">
+        <v>0.84061241701636302</v>
+      </c>
+      <c r="S13" s="82">
+        <v>0.84585483949117501</v>
+      </c>
+      <c r="T13">
+        <v>0.83632325918016404</v>
+      </c>
+      <c r="U13">
+        <v>0.26732750464143401</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" s="82">
+        <v>0.85006853968416896</v>
+      </c>
+      <c r="O14">
+        <v>0.84890881877135005</v>
+      </c>
+      <c r="P14">
+        <v>0.84013879336229202</v>
+      </c>
+      <c r="Q14">
+        <v>0.492154094360299</v>
+      </c>
+      <c r="R14" s="82">
+        <v>0.83778251929672398</v>
+      </c>
+      <c r="S14">
+        <v>0.83760636747587003</v>
+      </c>
+      <c r="T14">
+        <v>0.82952147720302105</v>
+      </c>
+      <c r="U14">
+        <v>0.40517742243805399</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>1005</v>
+      </c>
+      <c r="D15">
+        <v>25571</v>
+      </c>
+      <c r="E15">
+        <v>42</v>
+      </c>
+      <c r="F15">
+        <v>32.6069651741293</v>
+      </c>
+      <c r="G15">
+        <v>7.1643306150186801</v>
+      </c>
+      <c r="H15">
+        <v>0.39939999999999998</v>
+      </c>
+      <c r="I15">
+        <v>38.291095018386798</v>
+      </c>
+      <c r="J15">
+        <v>32.110687732696498</v>
+      </c>
+      <c r="K15">
+        <v>38.453314781188901</v>
+      </c>
+      <c r="L15">
+        <v>142.75609564781101</v>
+      </c>
+      <c r="M15" t="s">
+        <v>28</v>
+      </c>
+      <c r="N15">
+        <v>0.73757455268389605</v>
+      </c>
+      <c r="O15" s="82">
+        <v>0.74671968190854798</v>
+      </c>
+      <c r="P15">
+        <v>0.73121272365805101</v>
+      </c>
+      <c r="Q15">
+        <v>0.59880715705765397</v>
+      </c>
+      <c r="R15" s="82">
+        <v>0.50975515781320002</v>
+      </c>
+      <c r="S15">
+        <v>0.49726968151442102</v>
+      </c>
+      <c r="T15">
+        <v>0.492472815244477</v>
+      </c>
+      <c r="U15">
+        <v>0.29515169495947802</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="M16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N16" s="82">
+        <v>0.54237063076813896</v>
+      </c>
+      <c r="O16">
+        <v>0.53125389264616696</v>
+      </c>
+      <c r="P16">
+        <v>0.51158359997490399</v>
+      </c>
+      <c r="Q16">
+        <v>0.33676510420940697</v>
+      </c>
+      <c r="R16" s="82">
+        <v>0.31341025801483502</v>
+      </c>
+      <c r="S16">
+        <v>0.30785219697389599</v>
+      </c>
+      <c r="T16">
+        <v>0.29767862307823401</v>
+      </c>
+      <c r="U16">
+        <v>0.136189803022187</v>
+      </c>
+    </row>
+    <row r="17" spans="13:21" x14ac:dyDescent="0.3">
+      <c r="M17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17">
+        <v>0.80277750972517004</v>
+      </c>
+      <c r="O17" s="82">
+        <v>0.82509938974490105</v>
+      </c>
+      <c r="P17">
+        <v>0.80754406339209694</v>
+      </c>
+      <c r="Q17">
+        <v>0.68402459198753895</v>
+      </c>
+      <c r="R17" s="82">
+        <v>0.52818070575271903</v>
+      </c>
+      <c r="S17">
+        <v>0.52565017159149197</v>
+      </c>
+      <c r="T17">
+        <v>0.51685903087438401</v>
+      </c>
+      <c r="U17">
+        <v>0.31626224410891102</v>
+      </c>
+    </row>
+    <row r="18" spans="13:21" x14ac:dyDescent="0.3">
+      <c r="M18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18">
+        <v>0.72427279203231398</v>
+      </c>
+      <c r="O18" s="82">
+        <v>0.72772926385258896</v>
+      </c>
+      <c r="P18">
+        <v>0.72107734130244805</v>
+      </c>
+      <c r="Q18">
+        <v>0.60333033124126101</v>
+      </c>
+      <c r="R18" s="82">
+        <v>0.42296961618536699</v>
+      </c>
+      <c r="S18">
+        <v>0.39996874558398798</v>
+      </c>
+      <c r="T18">
+        <v>0.39684072921604302</v>
+      </c>
+      <c r="U18">
+        <v>0.258535303250016</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="N1:Q1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B347C101-9C8B-4008-AD32-255FD7B05A66}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11:N14"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection sqref="A1:P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8500,7 +9198,7 @@
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -8831,7 +9529,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255F4C15-D24E-485B-9D42-BDBC9872DBFC}">
   <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>

--- a/exp1_5.xlsx
+++ b/exp1_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ne\OpenNE-master\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4306044B-8DBB-4F04-BFD1-5B1D9DF606A3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995ADACD-37D3-46E6-97C0-BFA3E50B2134}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6870" firstSheet="2" activeTab="9" xr2:uid="{10403AC5-A414-4897-83F9-EF63EFA0D64E}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="49">
   <si>
     <t>Micro-F1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -224,6 +224,10 @@
   </si>
   <si>
     <t>lpwalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -686,7 +690,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="83">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,6 +919,9 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -933,7 +940,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2347,30 +2354,30 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="78"/>
-      <c r="H1" s="76" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="78"/>
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="78"/>
+      <c r="G1" s="79"/>
+      <c r="H1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="77"/>
-      <c r="J1" s="78"/>
-      <c r="K1" s="76" t="s">
+      <c r="I1" s="78"/>
+      <c r="J1" s="79"/>
+      <c r="K1" s="77" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="77"/>
-      <c r="M1" s="78"/>
-      <c r="N1" s="79" t="s">
+      <c r="L1" s="78"/>
+      <c r="M1" s="79"/>
+      <c r="N1" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="77"/>
-      <c r="P1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="79"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2689,45 +2696,47 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5950492-1FEA-4A10-AF9D-8EF04C409C17}">
-  <dimension ref="A1:U18"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q12" sqref="Q12"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A1" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="N1" s="81" t="s">
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="N1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="81"/>
-      <c r="P1" s="81"/>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="81" t="s">
+      <c r="O1" s="82"/>
+      <c r="P1" s="82"/>
+      <c r="Q1" s="82"/>
+      <c r="R1" s="82"/>
+      <c r="S1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="S1" s="81"/>
-      <c r="T1" s="81"/>
-      <c r="U1" s="81"/>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="T1" s="82"/>
+      <c r="U1" s="82"/>
+      <c r="V1" s="82"/>
+      <c r="W1" s="82"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -2771,28 +2780,34 @@
         <v>47</v>
       </c>
       <c r="O2" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" t="s">
         <v>4</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>3</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>2</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>47</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
+        <v>48</v>
+      </c>
+      <c r="U2" t="s">
         <v>4</v>
       </c>
-      <c r="T2" t="s">
+      <c r="V2" t="s">
         <v>3</v>
       </c>
-      <c r="U2" t="s">
+      <c r="W2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>
@@ -2826,95 +2841,119 @@
       <c r="M3" t="s">
         <v>28</v>
       </c>
-      <c r="O3">
+      <c r="N3">
+        <v>0.39910745621006699</v>
+      </c>
+      <c r="P3" s="83">
         <v>0.40383864523799601</v>
       </c>
-      <c r="P3">
+      <c r="Q3" s="76">
         <v>0.40593918658031902</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.37952179140138398</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="76">
+        <v>0.28681144737748798</v>
+      </c>
+      <c r="U3">
         <v>0.28235729608038901</v>
       </c>
-      <c r="T3">
+      <c r="V3">
         <v>0.279218266154796</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>0.233019456283446</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="M4" t="s">
         <v>29</v>
       </c>
-      <c r="O4">
+      <c r="N4" s="76">
+        <v>0.38697562908901401</v>
+      </c>
+      <c r="P4">
         <v>0.37923435881353501</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>0.38279541557345398</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>0.32900841130221398</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="76">
+        <v>0.25194647554391397</v>
+      </c>
+      <c r="U4">
         <v>0.230609314538574</v>
       </c>
-      <c r="T4">
+      <c r="V4">
         <v>0.20610579780688401</v>
       </c>
-      <c r="U4">
+      <c r="W4">
         <v>0.123864640500239</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="M5" t="s">
         <v>30</v>
       </c>
-      <c r="O5">
+      <c r="N5">
+        <v>0.39113515295344498</v>
+      </c>
+      <c r="P5" s="76">
         <v>0.395611827038028</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>0.393820927930218</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>0.36768104170106902</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="76">
+        <v>0.28110303681927201</v>
+      </c>
+      <c r="U5">
         <v>0.27958278378186102</v>
       </c>
-      <c r="T5">
+      <c r="V5">
         <v>0.27524640309612403</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>0.229600960713645</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="M6" t="s">
         <v>31</v>
       </c>
-      <c r="O6">
+      <c r="N6">
+        <v>0.42263085107878501</v>
+      </c>
+      <c r="P6" s="83">
         <v>0.43506590960207198</v>
       </c>
-      <c r="P6">
+      <c r="Q6" s="76">
         <v>0.444062901628621</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>0.43341396674935001</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="83">
+        <v>0.25249932142232001</v>
+      </c>
+      <c r="U6">
         <v>0.24946708127071299</v>
       </c>
-      <c r="T6">
+      <c r="V6" s="76">
         <v>0.26755606225614098</v>
       </c>
-      <c r="U6">
+      <c r="W6">
         <v>0.249255348821527</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -2951,119 +2990,127 @@
       <c r="M7" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="82">
+      <c r="N7" s="76">
         <v>0.40881082286304599</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="76"/>
+      <c r="P7">
         <v>0.39296294772479701</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>0.39762263392829</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>0.35681739705145699</v>
       </c>
-      <c r="R7" s="82">
+      <c r="S7" s="76">
         <v>0.277329813140754</v>
       </c>
-      <c r="S7">
+      <c r="T7" s="76"/>
+      <c r="U7">
         <v>0.25130046657392502</v>
       </c>
-      <c r="T7">
+      <c r="V7">
         <v>0.261037921302474</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>0.19580386677929501</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="M8" t="s">
         <v>29</v>
       </c>
-      <c r="N8" s="82">
+      <c r="N8" s="76">
         <v>0.36342131780792403</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="76"/>
+      <c r="P8">
         <v>0.33629482636451402</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>0.35691018830558102</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>0.31467942145126798</v>
       </c>
-      <c r="R8" s="82">
+      <c r="S8" s="76">
         <v>0.22738371893977499</v>
       </c>
-      <c r="S8">
+      <c r="T8" s="76"/>
+      <c r="U8">
         <v>0.20514765322922399</v>
       </c>
-      <c r="T8">
+      <c r="V8">
         <v>0.22284625449436299</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>0.13522834498781799</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="M9" t="s">
         <v>30</v>
       </c>
-      <c r="N9" s="82">
+      <c r="N9" s="76">
         <v>0.416557223682755</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="76"/>
+      <c r="P9">
         <v>0.40079565744179602</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>0.401595034252415</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>0.35842584336365602</v>
       </c>
-      <c r="R9" s="82">
+      <c r="S9" s="76">
         <v>0.288875629551545</v>
       </c>
-      <c r="S9">
+      <c r="T9" s="76"/>
+      <c r="U9">
         <v>0.26058560652817497</v>
       </c>
-      <c r="T9">
+      <c r="V9">
         <v>0.26068162653567001</v>
       </c>
-      <c r="U9">
+      <c r="W9">
         <v>0.19436882452036999</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="M10" t="s">
         <v>31</v>
       </c>
-      <c r="N10" s="82">
+      <c r="N10" s="76">
         <v>0.423877505319535</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="76"/>
+      <c r="P10">
         <v>0.41779120934919101</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>0.41869332188220199</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>0.38605386967424099</v>
       </c>
-      <c r="R10" s="82">
+      <c r="S10" s="83">
         <v>0.26638440045867701</v>
       </c>
-      <c r="S10">
+      <c r="T10" s="76"/>
+      <c r="U10">
         <v>0.243577536209579</v>
       </c>
-      <c r="T10">
+      <c r="V10" s="76">
         <v>0.27139346482618099</v>
       </c>
-      <c r="U10">
+      <c r="W10">
         <v>0.222561524081656</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -3103,116 +3150,140 @@
       <c r="N11">
         <v>0.81964549483013305</v>
       </c>
-      <c r="O11" s="82">
+      <c r="O11">
+        <v>0.78596750369276203</v>
+      </c>
+      <c r="P11" s="76">
         <v>0.82880354505169795</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>0.81536189069423903</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>0.42378138847858199</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>0.81115366983542003</v>
       </c>
-      <c r="S11" s="82">
+      <c r="T11">
+        <v>0.77870576870270702</v>
+      </c>
+      <c r="U11" s="76">
         <v>0.81952239852758302</v>
       </c>
-      <c r="T11">
+      <c r="V11">
         <v>0.80702839101841095</v>
       </c>
-      <c r="U11">
+      <c r="W11">
         <v>0.28291065009708699</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="M12" t="s">
         <v>29</v>
       </c>
       <c r="N12">
         <v>0.70410253057641403</v>
       </c>
-      <c r="O12" s="82">
+      <c r="O12">
+        <v>0.67386001806988804</v>
+      </c>
+      <c r="P12" s="76">
         <v>0.72977922783067295</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>0.69600862289068799</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>0.35215487931615402</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>0.67556872144881197</v>
       </c>
-      <c r="S12" s="82">
+      <c r="T12">
+        <v>0.64878658816524803</v>
+      </c>
+      <c r="U12" s="76">
         <v>0.70408291628666098</v>
       </c>
-      <c r="T12">
+      <c r="V12">
         <v>0.67831883157806505</v>
       </c>
-      <c r="U12">
+      <c r="W12">
         <v>0.12311373752609001</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="M13" t="s">
         <v>30</v>
       </c>
       <c r="N13">
         <v>0.84917167444797703</v>
       </c>
-      <c r="O13" s="82">
+      <c r="O13">
+        <v>0.811228353509717</v>
+      </c>
+      <c r="P13" s="76">
         <v>0.85530507802635702</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>0.84683759451379303</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>0.42585215754251499</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>0.84061241701636302</v>
       </c>
-      <c r="S13" s="82">
+      <c r="T13">
+        <v>0.80147889571543396</v>
+      </c>
+      <c r="U13" s="76">
         <v>0.84585483949117501</v>
       </c>
-      <c r="T13">
+      <c r="V13">
         <v>0.83632325918016404</v>
       </c>
-      <c r="U13">
+      <c r="W13">
         <v>0.26732750464143401</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="M14" t="s">
         <v>31</v>
       </c>
-      <c r="N14" s="82">
+      <c r="N14" s="76">
         <v>0.85006853968416896</v>
       </c>
       <c r="O14">
+        <v>0.82430045357413195</v>
+      </c>
+      <c r="P14">
         <v>0.84890881877135005</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>0.84013879336229202</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>0.492154094360299</v>
       </c>
-      <c r="R14" s="82">
+      <c r="S14" s="76">
         <v>0.83778251929672398</v>
       </c>
-      <c r="S14">
+      <c r="T14">
+        <v>0.81646235849368498</v>
+      </c>
+      <c r="U14">
         <v>0.83760636747587003</v>
       </c>
-      <c r="T14">
+      <c r="V14">
         <v>0.82952147720302105</v>
       </c>
-      <c r="U14">
+      <c r="W14">
         <v>0.40517742243805399</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -3255,121 +3326,145 @@
       <c r="N15">
         <v>0.73757455268389605</v>
       </c>
-      <c r="O15" s="82">
+      <c r="O15">
+        <v>0.66083499005964197</v>
+      </c>
+      <c r="P15" s="76">
         <v>0.74671968190854798</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>0.73121272365805101</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>0.59880715705765397</v>
       </c>
-      <c r="R15" s="82">
+      <c r="S15" s="76">
         <v>0.50975515781320002</v>
       </c>
-      <c r="S15">
+      <c r="T15">
+        <v>0.38308804726726398</v>
+      </c>
+      <c r="U15">
         <v>0.49726968151442102</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>0.492472815244477</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>0.29515169495947802</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="M16" t="s">
         <v>29</v>
       </c>
-      <c r="N16" s="82">
+      <c r="N16" s="76">
         <v>0.54237063076813896</v>
       </c>
       <c r="O16">
+        <v>0.50907811286035798</v>
+      </c>
+      <c r="P16">
         <v>0.53125389264616696</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>0.51158359997490399</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>0.33676510420940697</v>
       </c>
-      <c r="R16" s="82">
+      <c r="S16" s="76">
         <v>0.31341025801483502</v>
       </c>
-      <c r="S16">
+      <c r="T16">
+        <v>0.25882715320741501</v>
+      </c>
+      <c r="U16">
         <v>0.30785219697389599</v>
       </c>
-      <c r="T16">
+      <c r="V16">
         <v>0.29767862307823401</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>0.136189803022187</v>
       </c>
     </row>
-    <row r="17" spans="13:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M17" t="s">
         <v>30</v>
       </c>
       <c r="N17">
         <v>0.80277750972517004</v>
       </c>
-      <c r="O17" s="82">
+      <c r="O17">
+        <v>0.737380145773879</v>
+      </c>
+      <c r="P17" s="76">
         <v>0.82509938974490105</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>0.80754406339209694</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>0.68402459198753895</v>
       </c>
-      <c r="R17" s="82">
+      <c r="S17" s="76">
         <v>0.52818070575271903</v>
       </c>
-      <c r="S17">
+      <c r="T17">
+        <v>0.40914270656080198</v>
+      </c>
+      <c r="U17">
         <v>0.52565017159149197</v>
       </c>
-      <c r="T17">
+      <c r="V17">
         <v>0.51685903087438401</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>0.31626224410891102</v>
       </c>
     </row>
-    <row r="18" spans="13:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="13:23" x14ac:dyDescent="0.3">
       <c r="M18" t="s">
         <v>31</v>
       </c>
       <c r="N18">
         <v>0.72427279203231398</v>
       </c>
-      <c r="O18" s="82">
+      <c r="O18">
+        <v>0.56366426534670599</v>
+      </c>
+      <c r="P18" s="76">
         <v>0.72772926385258896</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>0.72107734130244805</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>0.60333033124126101</v>
       </c>
-      <c r="R18" s="82">
+      <c r="S18" s="76">
         <v>0.42296961618536699</v>
       </c>
-      <c r="S18">
+      <c r="T18">
+        <v>0.284529219654164</v>
+      </c>
+      <c r="U18">
         <v>0.39996874558398798</v>
       </c>
-      <c r="T18">
+      <c r="V18">
         <v>0.39684072921604302</v>
       </c>
-      <c r="U18">
+      <c r="W18">
         <v>0.258535303250016</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="R1:U1"/>
+    <mergeCell ref="S1:W1"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="N1:Q1"/>
+    <mergeCell ref="N1:R1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3388,30 +3483,30 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="77" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="77"/>
-      <c r="C1" s="80"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="80"/>
-      <c r="F1" s="80"/>
-      <c r="G1" s="76" t="s">
+      <c r="B1" s="78"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="77"/>
-      <c r="I1" s="80"/>
+      <c r="H1" s="78"/>
+      <c r="I1" s="81"/>
       <c r="J1" s="70"/>
-      <c r="K1" s="79" t="s">
+      <c r="K1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="77"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="76" t="s">
+      <c r="L1" s="78"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="77"/>
-      <c r="P1" s="78"/>
+      <c r="O1" s="78"/>
+      <c r="P1" s="79"/>
     </row>
     <row r="2" spans="1:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -4359,24 +4454,24 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -5332,24 +5427,24 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6304,24 +6399,24 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7275,24 +7370,24 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -8239,24 +8334,24 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="81" t="s">
+      <c r="A1" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="81"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81" t="s">
+      <c r="B1" s="82"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="81"/>
-      <c r="L1" s="81"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="81"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="82"/>
+      <c r="L1" s="82"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="82"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -9204,14 +9299,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81" t="s">
+      <c r="D1" s="82"/>
+      <c r="E1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="81"/>
+      <c r="F1" s="82"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -9539,39 +9634,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="81" t="s">
+      <c r="C1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81" t="s">
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81" t="s">
+      <c r="D2" s="82"/>
+      <c r="E2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81" t="s">
+      <c r="F2" s="82"/>
+      <c r="G2" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81" t="s">
+      <c r="H2" s="82"/>
+      <c r="I2" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="81"/>
+      <c r="J2" s="82"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C3" t="s">

--- a/exp1_5.xlsx
+++ b/exp1_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ne\OpenNE-master\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{995ADACD-37D3-46E6-97C0-BFA3E50B2134}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DBAD27-646C-4A6E-8141-0BEE61F1F7D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6870" firstSheet="2" activeTab="9" xr2:uid="{10403AC5-A414-4897-83F9-EF63EFA0D64E}"/>
   </bookViews>
@@ -922,6 +922,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -939,9 +942,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2354,30 +2354,30 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
-      <c r="F1" s="78"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="77" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="79"/>
+      <c r="D1" s="79"/>
+      <c r="E1" s="79"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="80"/>
+      <c r="H1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="78"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="77" t="s">
+      <c r="I1" s="79"/>
+      <c r="J1" s="80"/>
+      <c r="K1" s="78" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="78"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="80" t="s">
+      <c r="L1" s="79"/>
+      <c r="M1" s="80"/>
+      <c r="N1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="78"/>
-      <c r="P1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="80"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2698,43 +2698,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5950492-1FEA-4A10-AF9D-8EF04C409C17}">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="T9" sqref="T9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="N1" s="82" t="s">
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="N1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="82"/>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="82"/>
-      <c r="S1" s="82" t="s">
+      <c r="O1" s="83"/>
+      <c r="P1" s="83"/>
+      <c r="Q1" s="83"/>
+      <c r="R1" s="83"/>
+      <c r="S1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="82"/>
-      <c r="U1" s="82"/>
-      <c r="V1" s="82"/>
-      <c r="W1" s="82"/>
+      <c r="T1" s="83"/>
+      <c r="U1" s="83"/>
+      <c r="V1" s="83"/>
+      <c r="W1" s="83"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2844,7 +2844,7 @@
       <c r="N3">
         <v>0.39910745621006699</v>
       </c>
-      <c r="P3" s="83">
+      <c r="P3" s="77">
         <v>0.40383864523799601</v>
       </c>
       <c r="Q3" s="76">
@@ -2931,7 +2931,7 @@
       <c r="N6">
         <v>0.42263085107878501</v>
       </c>
-      <c r="P6" s="83">
+      <c r="P6" s="77">
         <v>0.43506590960207198</v>
       </c>
       <c r="Q6" s="76">
@@ -2940,7 +2940,7 @@
       <c r="R6">
         <v>0.43341396674935001</v>
       </c>
-      <c r="S6" s="83">
+      <c r="S6" s="77">
         <v>0.25249932142232001</v>
       </c>
       <c r="U6">
@@ -2993,7 +2993,9 @@
       <c r="N7" s="76">
         <v>0.40881082286304599</v>
       </c>
-      <c r="O7" s="76"/>
+      <c r="O7">
+        <v>0.25065459728869099</v>
+      </c>
       <c r="P7">
         <v>0.39296294772479701</v>
       </c>
@@ -3006,7 +3008,9 @@
       <c r="S7" s="76">
         <v>0.277329813140754</v>
       </c>
-      <c r="T7" s="76"/>
+      <c r="T7">
+        <v>0.12599664240356601</v>
+      </c>
       <c r="U7">
         <v>0.25130046657392502</v>
       </c>
@@ -3024,7 +3028,9 @@
       <c r="N8" s="76">
         <v>0.36342131780792403</v>
       </c>
-      <c r="O8" s="76"/>
+      <c r="O8">
+        <v>0.258588625098367</v>
+      </c>
       <c r="P8">
         <v>0.33629482636451402</v>
       </c>
@@ -3037,7 +3043,9 @@
       <c r="S8" s="76">
         <v>0.22738371893977499</v>
       </c>
-      <c r="T8" s="76"/>
+      <c r="T8">
+        <v>0.11208854869436401</v>
+      </c>
       <c r="U8">
         <v>0.20514765322922399</v>
       </c>
@@ -3055,7 +3063,9 @@
       <c r="N9" s="76">
         <v>0.416557223682755</v>
       </c>
-      <c r="O9" s="76"/>
+      <c r="O9">
+        <v>0.24749806312410499</v>
+      </c>
       <c r="P9">
         <v>0.40079565744179602</v>
       </c>
@@ -3068,7 +3078,9 @@
       <c r="S9" s="76">
         <v>0.288875629551545</v>
       </c>
-      <c r="T9" s="76"/>
+      <c r="T9">
+        <v>0.125235557392888</v>
+      </c>
       <c r="U9">
         <v>0.26058560652817497</v>
       </c>
@@ -3086,7 +3098,9 @@
       <c r="N10" s="76">
         <v>0.423877505319535</v>
       </c>
-      <c r="O10" s="76"/>
+      <c r="O10">
+        <v>0.25287240046086901</v>
+      </c>
       <c r="P10">
         <v>0.41779120934919101</v>
       </c>
@@ -3096,10 +3110,12 @@
       <c r="R10">
         <v>0.38605386967424099</v>
       </c>
-      <c r="S10" s="83">
+      <c r="S10" s="77">
         <v>0.26638440045867701</v>
       </c>
-      <c r="T10" s="76"/>
+      <c r="T10">
+        <v>0.128310990221122</v>
+      </c>
       <c r="U10">
         <v>0.243577536209579</v>
       </c>
@@ -3483,30 +3499,30 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="77" t="s">
+      <c r="A1" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="78"/>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="77" t="s">
+      <c r="B1" s="79"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="78" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="78"/>
-      <c r="I1" s="81"/>
+      <c r="H1" s="79"/>
+      <c r="I1" s="82"/>
       <c r="J1" s="70"/>
-      <c r="K1" s="80" t="s">
+      <c r="K1" s="81" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="78"/>
-      <c r="M1" s="81"/>
-      <c r="N1" s="77" t="s">
+      <c r="L1" s="79"/>
+      <c r="M1" s="82"/>
+      <c r="N1" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="78"/>
-      <c r="P1" s="79"/>
+      <c r="O1" s="79"/>
+      <c r="P1" s="80"/>
     </row>
     <row r="2" spans="1:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -4454,24 +4470,24 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -5427,24 +5443,24 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6399,24 +6415,24 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7370,24 +7386,24 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -8334,24 +8350,24 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="82" t="s">
+      <c r="A1" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82" t="s">
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83"/>
+      <c r="H1" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="82"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -9299,14 +9315,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="82"/>
+      <c r="F1" s="83"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -9634,39 +9650,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="82" t="s">
+      <c r="C1" s="83" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82" t="s">
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
+      <c r="H1" s="83"/>
+      <c r="I1" s="83"/>
+      <c r="J1" s="83"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82" t="s">
+      <c r="D2" s="83"/>
+      <c r="E2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82" t="s">
+      <c r="F2" s="83"/>
+      <c r="G2" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82" t="s">
+      <c r="H2" s="83"/>
+      <c r="I2" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="82"/>
+      <c r="J2" s="83"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C3" t="s">

--- a/exp1_5.xlsx
+++ b/exp1_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ne\OpenNE-master\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6DBAD27-646C-4A6E-8141-0BEE61F1F7D9}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E2BC95-0346-4A02-BA43-56CF69E20414}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6870" firstSheet="2" activeTab="9" xr2:uid="{10403AC5-A414-4897-83F9-EF63EFA0D64E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6870" firstSheet="2" activeTab="8" xr2:uid="{10403AC5-A414-4897-83F9-EF63EFA0D64E}"/>
   </bookViews>
   <sheets>
     <sheet name="第一阶段结果" sheetId="3" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="dblp" sheetId="10" r:id="rId7"/>
     <sheet name="MHWalk" sheetId="11" r:id="rId8"/>
     <sheet name="sample" sheetId="12" r:id="rId9"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId10"/>
+    <sheet name="lpwalk&amp;APP" sheetId="13" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">blogcatalog!$A$2:$N$22</definedName>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="50">
   <si>
     <t>Micro-F1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -215,6 +215,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>lpwalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>openne</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -223,11 +231,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lpwalk</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>APP</t>
+    <t>差</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -690,7 +694,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -924,6 +928,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2354,30 +2361,30 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="80"/>
-      <c r="H1" s="78" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="80"/>
+      <c r="D1" s="80"/>
+      <c r="E1" s="80"/>
+      <c r="F1" s="80"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="79"/>
-      <c r="J1" s="80"/>
-      <c r="K1" s="78" t="s">
+      <c r="I1" s="80"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="80"/>
-      <c r="N1" s="81" t="s">
+      <c r="L1" s="80"/>
+      <c r="M1" s="81"/>
+      <c r="N1" s="82" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="81"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -2698,43 +2705,43 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5950492-1FEA-4A10-AF9D-8EF04C409C17}">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T9" sqref="T9"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="N1" s="83" t="s">
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="N1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="83"/>
-      <c r="P1" s="83"/>
-      <c r="Q1" s="83"/>
-      <c r="R1" s="83"/>
-      <c r="S1" s="83" t="s">
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="83"/>
-      <c r="U1" s="83"/>
-      <c r="V1" s="83"/>
-      <c r="W1" s="83"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -2762,7 +2769,7 @@
         <v>26</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J2" t="s">
         <v>4</v>
@@ -2777,10 +2784,10 @@
         <v>32</v>
       </c>
       <c r="N2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="O2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="P2" t="s">
         <v>4</v>
@@ -2792,10 +2799,10 @@
         <v>2</v>
       </c>
       <c r="S2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="T2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="U2" t="s">
         <v>4</v>
@@ -3499,30 +3506,30 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="78" t="s">
+      <c r="A1" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="79"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="78" t="s">
+      <c r="B1" s="80"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="83"/>
+      <c r="F1" s="83"/>
+      <c r="G1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="79"/>
-      <c r="I1" s="82"/>
+      <c r="H1" s="80"/>
+      <c r="I1" s="83"/>
       <c r="J1" s="70"/>
-      <c r="K1" s="81" t="s">
+      <c r="K1" s="82" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="79"/>
-      <c r="M1" s="82"/>
-      <c r="N1" s="78" t="s">
+      <c r="L1" s="80"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="O1" s="79"/>
-      <c r="P1" s="80"/>
+      <c r="O1" s="80"/>
+      <c r="P1" s="81"/>
     </row>
     <row r="2" spans="1:16" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="18" t="s">
@@ -4470,24 +4477,24 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -5443,24 +5450,24 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -6415,24 +6422,24 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -7386,24 +7393,24 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -8350,24 +8357,24 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="83" t="s">
+      <c r="A1" s="84" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83"/>
-      <c r="H1" s="83" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
-      <c r="L1" s="83"/>
-      <c r="M1" s="83"/>
-      <c r="N1" s="83"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -9315,14 +9322,14 @@
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C1" s="83" t="s">
+      <c r="C1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83" t="s">
+      <c r="D1" s="84"/>
+      <c r="E1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="83"/>
+      <c r="F1" s="84"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
@@ -9638,276 +9645,725 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255F4C15-D24E-485B-9D42-BDBC9872DBFC}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C1" s="83" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C1" s="84" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="83"/>
-      <c r="E1" s="83"/>
-      <c r="F1" s="83"/>
-      <c r="G1" s="83" t="s">
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="83"/>
-      <c r="I1" s="83"/>
-      <c r="J1" s="83"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
       <c r="B2" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="83"/>
-      <c r="E2" s="83" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="83"/>
-      <c r="G2" s="83" t="s">
+      <c r="G2" s="84"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83" t="s">
+      <c r="J2" s="84"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="J2" s="83"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M2" s="84"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I3" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="J3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
         <v>28</v>
       </c>
       <c r="C4">
-        <v>0.74671968190854798</v>
-      </c>
-      <c r="D4">
-        <v>0.70218687872763397</v>
-      </c>
-      <c r="E4">
-        <v>0.73121272365805101</v>
+        <v>0.40383864523799601</v>
       </c>
       <c r="F4">
-        <v>0.73121272365805101</v>
-      </c>
-      <c r="G4">
-        <v>0.49726968151442102</v>
-      </c>
-      <c r="H4">
-        <v>0.42869660648313801</v>
+        <v>0.40593918658031902</v>
       </c>
       <c r="I4">
-        <v>0.492472815244477</v>
-      </c>
-      <c r="J4">
-        <v>0.47171909235530701</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.28235729608038901</v>
+      </c>
+      <c r="L4">
+        <v>0.279218266154796</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>29</v>
       </c>
       <c r="C5">
-        <v>0.53125389264616696</v>
-      </c>
-      <c r="D5">
-        <v>0.48652070461541902</v>
-      </c>
-      <c r="E5">
-        <v>0.51158359997490399</v>
+        <v>0.37923435881353501</v>
       </c>
       <c r="F5">
-        <v>0.55226327820912902</v>
-      </c>
-      <c r="G5">
-        <v>0.30785219697389599</v>
-      </c>
-      <c r="H5">
-        <v>0.24865579691836701</v>
+        <v>0.38279541557345398</v>
       </c>
       <c r="I5">
-        <v>0.29767862307823401</v>
-      </c>
-      <c r="J5">
-        <v>0.30023240863922301</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.230609314538574</v>
+      </c>
+      <c r="L5">
+        <v>0.20610579780688401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>30</v>
       </c>
       <c r="C6">
-        <v>0.82509938974490105</v>
-      </c>
-      <c r="D6">
-        <v>0.78657141172467104</v>
-      </c>
-      <c r="E6">
-        <v>0.80754406339209694</v>
+        <v>0.395611827038028</v>
       </c>
       <c r="F6">
-        <v>0.80170195867870198</v>
-      </c>
-      <c r="G6">
-        <v>0.52565017159149197</v>
-      </c>
-      <c r="H6">
-        <v>0.47369897291348501</v>
+        <v>0.393820927930218</v>
       </c>
       <c r="I6">
-        <v>0.51685903087438401</v>
-      </c>
-      <c r="J6">
-        <v>0.50546811997111296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.27958278378186102</v>
+      </c>
+      <c r="L6">
+        <v>0.27524640309612403</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>31</v>
       </c>
       <c r="C7">
-        <v>0.72772926385258896</v>
-      </c>
-      <c r="D7">
-        <v>0.67378075458055797</v>
-      </c>
-      <c r="E7">
-        <v>0.72107734130244805</v>
+        <v>0.43506590960207198</v>
       </c>
       <c r="F7">
-        <v>0.70214431958181101</v>
-      </c>
-      <c r="G7">
-        <v>0.39996874558398798</v>
-      </c>
-      <c r="H7">
-        <v>0.36468491874727998</v>
+        <v>0.444062901628621</v>
       </c>
       <c r="I7">
-        <v>0.39684072921604302</v>
-      </c>
-      <c r="J7">
-        <v>0.38812622440808098</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.24946708127071299</v>
+      </c>
+      <c r="L7">
+        <v>0.26755606225614098</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
         <v>28</v>
       </c>
       <c r="C8">
-        <v>0.82880354499999997</v>
+        <v>0.39296294772479701</v>
       </c>
       <c r="D8">
-        <v>0.23293943870014699</v>
+        <v>0.33726830512433698</v>
+      </c>
+      <c r="E8" s="76">
+        <f>C8-D8</f>
+        <v>5.5694642600460031E-2</v>
+      </c>
+      <c r="F8">
+        <v>0.39762263392829</v>
       </c>
       <c r="G8">
-        <v>0.81952239852758302</v>
-      </c>
-      <c r="H8">
-        <v>0.13184245554716301</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.34373928331317499</v>
+      </c>
+      <c r="H8" s="76">
+        <f>F8-G8</f>
+        <v>5.3883350615115011E-2</v>
+      </c>
+      <c r="I8">
+        <v>0.25130046657392502</v>
+      </c>
+      <c r="J8">
+        <v>0.19272175085961199</v>
+      </c>
+      <c r="K8" s="76">
+        <f>I8-J8</f>
+        <v>5.8578715714313029E-2</v>
+      </c>
+      <c r="L8">
+        <v>0.261037921302474</v>
+      </c>
+      <c r="M8">
+        <v>0.19729891951429099</v>
+      </c>
+      <c r="N8" s="76">
+        <f>L8-M8</f>
+        <v>6.3739001788183008E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>29</v>
       </c>
       <c r="C9">
-        <v>0.72977922799999995</v>
+        <v>0.33629482636451402</v>
       </c>
       <c r="D9">
-        <v>0.26793312820377102</v>
+        <v>0.306863432436628</v>
+      </c>
+      <c r="E9" s="76">
+        <f t="shared" ref="E9:E19" si="0">C9-D9</f>
+        <v>2.9431393927886018E-2</v>
+      </c>
+      <c r="F9">
+        <v>0.35691018830558102</v>
       </c>
       <c r="G9">
-        <v>0.70408291628666098</v>
-      </c>
-      <c r="H9">
-        <v>0.139453619176854</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.30877475612107702</v>
+      </c>
+      <c r="H9" s="76">
+        <f t="shared" ref="H9:H19" si="1">F9-G9</f>
+        <v>4.8135432184504001E-2</v>
+      </c>
+      <c r="I9">
+        <v>0.20514765322922399</v>
+      </c>
+      <c r="J9">
+        <v>0.16936866033668299</v>
+      </c>
+      <c r="K9" s="76">
+        <f t="shared" ref="K9:K19" si="2">I9-J9</f>
+        <v>3.5778992892540995E-2</v>
+      </c>
+      <c r="L9">
+        <v>0.22284625449436299</v>
+      </c>
+      <c r="M9">
+        <v>0.17081264285073899</v>
+      </c>
+      <c r="N9" s="76">
+        <f t="shared" ref="N9:N19" si="3">L9-M9</f>
+        <v>5.2033611643623995E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>30</v>
       </c>
       <c r="C10">
-        <v>0.855305078</v>
+        <v>0.40079565744179602</v>
       </c>
       <c r="D10">
-        <v>0.232945342632458</v>
+        <v>0.342194549406313</v>
+      </c>
+      <c r="E10" s="76">
+        <f t="shared" si="0"/>
+        <v>5.8601108035483018E-2</v>
+      </c>
+      <c r="F10">
+        <v>0.401595034252415</v>
       </c>
       <c r="G10">
-        <v>0.84585483949117501</v>
-      </c>
-      <c r="H10">
-        <v>0.130171119486438</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+        <v>0.34557167412772999</v>
+      </c>
+      <c r="H10" s="76">
+        <f t="shared" si="1"/>
+        <v>5.6023360124685007E-2</v>
+      </c>
+      <c r="I10">
+        <v>0.26058560652817497</v>
+      </c>
+      <c r="J10">
+        <v>0.19752476897190599</v>
+      </c>
+      <c r="K10" s="76">
+        <f t="shared" si="2"/>
+        <v>6.3060837556268984E-2</v>
+      </c>
+      <c r="L10">
+        <v>0.26068162653567001</v>
+      </c>
+      <c r="M10">
+        <v>0.20311708148855101</v>
+      </c>
+      <c r="N10" s="76">
+        <f t="shared" si="3"/>
+        <v>5.7564545047118998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>31</v>
       </c>
       <c r="C11">
-        <v>0.84890881900000004</v>
+        <v>0.41779120934919101</v>
       </c>
       <c r="D11">
-        <v>0.19843046576091999</v>
+        <v>0.34795601107121099</v>
+      </c>
+      <c r="E11" s="76">
+        <f t="shared" si="0"/>
+        <v>6.9835198277980015E-2</v>
+      </c>
+      <c r="F11">
+        <v>0.41869332188220199</v>
       </c>
       <c r="G11">
+        <v>0.36685139991161297</v>
+      </c>
+      <c r="H11" s="76">
+        <f t="shared" si="1"/>
+        <v>5.1841921970589011E-2</v>
+      </c>
+      <c r="I11">
+        <v>0.243577536209579</v>
+      </c>
+      <c r="J11">
+        <v>0.176278435803326</v>
+      </c>
+      <c r="K11" s="76">
+        <f t="shared" si="2"/>
+        <v>6.7299100406253004E-2</v>
+      </c>
+      <c r="L11">
+        <v>0.27139346482618099</v>
+      </c>
+      <c r="M11">
+        <v>0.184653346825736</v>
+      </c>
+      <c r="N11" s="76">
+        <f t="shared" si="3"/>
+        <v>8.6740118000444982E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12">
+        <v>0.82880354505169795</v>
+      </c>
+      <c r="D12">
+        <v>0.82895125553914295</v>
+      </c>
+      <c r="E12" s="76">
+        <f t="shared" si="0"/>
+        <v>-1.4771048744499637E-4</v>
+      </c>
+      <c r="F12">
+        <v>0.81536189069423903</v>
+      </c>
+      <c r="G12">
+        <v>0.82112259970457901</v>
+      </c>
+      <c r="H12" s="76">
+        <f t="shared" si="1"/>
+        <v>-5.7607090103399816E-3</v>
+      </c>
+      <c r="I12">
+        <v>0.81952239852758302</v>
+      </c>
+      <c r="J12">
+        <v>0.81899888788060604</v>
+      </c>
+      <c r="K12" s="76">
+        <f t="shared" si="2"/>
+        <v>5.235106469769768E-4</v>
+      </c>
+      <c r="L12">
+        <v>0.80702839101841095</v>
+      </c>
+      <c r="M12">
+        <v>0.81169810726935698</v>
+      </c>
+      <c r="N12" s="76">
+        <f t="shared" si="3"/>
+        <v>-4.6697162509460322E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>0.72977922783067295</v>
+      </c>
+      <c r="D13">
+        <v>0.745697061435449</v>
+      </c>
+      <c r="E13" s="76">
+        <f t="shared" si="0"/>
+        <v>-1.5917833604776055E-2</v>
+      </c>
+      <c r="F13">
+        <v>0.69600862289068799</v>
+      </c>
+      <c r="G13">
+        <v>0.72247282799466594</v>
+      </c>
+      <c r="H13" s="76">
+        <f t="shared" si="1"/>
+        <v>-2.6464205103977956E-2</v>
+      </c>
+      <c r="I13">
+        <v>0.70408291628666098</v>
+      </c>
+      <c r="J13">
+        <v>0.72666036301866899</v>
+      </c>
+      <c r="K13" s="76">
+        <f t="shared" si="2"/>
+        <v>-2.2577446732008011E-2</v>
+      </c>
+      <c r="L13">
+        <v>0.67831883157806505</v>
+      </c>
+      <c r="M13">
+        <v>0.70383003267810995</v>
+      </c>
+      <c r="N13" s="76">
+        <f t="shared" si="3"/>
+        <v>-2.55112011000449E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>0.85530507802635702</v>
+      </c>
+      <c r="D14">
+        <v>0.84875764916347596</v>
+      </c>
+      <c r="E14" s="76">
+        <f t="shared" si="0"/>
+        <v>6.5474288628810662E-3</v>
+      </c>
+      <c r="F14">
+        <v>0.84683759451379303</v>
+      </c>
+      <c r="G14">
+        <v>0.84411768131777998</v>
+      </c>
+      <c r="H14" s="76">
+        <f t="shared" si="1"/>
+        <v>2.7199131960130574E-3</v>
+      </c>
+      <c r="I14">
+        <v>0.84585483949117501</v>
+      </c>
+      <c r="J14">
+        <v>0.83672904563576</v>
+      </c>
+      <c r="K14" s="76">
+        <f t="shared" si="2"/>
+        <v>9.1257938554150098E-3</v>
+      </c>
+      <c r="L14">
+        <v>0.83632325918016404</v>
+      </c>
+      <c r="M14">
+        <v>0.83200947864735597</v>
+      </c>
+      <c r="N14" s="76">
+        <f t="shared" si="3"/>
+        <v>4.3137805328080647E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15">
+        <v>0.84890881877135005</v>
+      </c>
+      <c r="D15">
+        <v>0.84836430475028002</v>
+      </c>
+      <c r="E15" s="76">
+        <f t="shared" si="0"/>
+        <v>5.4451402107003055E-4</v>
+      </c>
+      <c r="F15">
+        <v>0.84013879336229202</v>
+      </c>
+      <c r="G15">
+        <v>0.85235043033948998</v>
+      </c>
+      <c r="H15" s="76">
+        <f t="shared" si="1"/>
+        <v>-1.2211636977197959E-2</v>
+      </c>
+      <c r="I15">
         <v>0.83760636747587003</v>
       </c>
-      <c r="H11">
-        <v>0.12537685412986099</v>
+      <c r="J15">
+        <v>0.83569087330580805</v>
+      </c>
+      <c r="K15" s="76">
+        <f t="shared" si="2"/>
+        <v>1.9154941700619821E-3</v>
+      </c>
+      <c r="L15">
+        <v>0.82952147720302105</v>
+      </c>
+      <c r="M15">
+        <v>0.844375122104429</v>
+      </c>
+      <c r="N15" s="76">
+        <f t="shared" si="3"/>
+        <v>-1.4853644901407947E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>0.74671968190854798</v>
+      </c>
+      <c r="D16">
+        <v>0.71769383697813105</v>
+      </c>
+      <c r="E16" s="76">
+        <f t="shared" si="0"/>
+        <v>2.9025844930416933E-2</v>
+      </c>
+      <c r="F16">
+        <v>0.73121272365805101</v>
+      </c>
+      <c r="G16">
+        <v>0.71848906560636105</v>
+      </c>
+      <c r="H16" s="76">
+        <f t="shared" si="1"/>
+        <v>1.2723658051689957E-2</v>
+      </c>
+      <c r="I16">
+        <v>0.49726968151442102</v>
+      </c>
+      <c r="J16">
+        <v>0.43704908627984002</v>
+      </c>
+      <c r="K16" s="76">
+        <f t="shared" si="2"/>
+        <v>6.0220595234581009E-2</v>
+      </c>
+      <c r="L16">
+        <v>0.492472815244477</v>
+      </c>
+      <c r="M16">
+        <v>0.44995189834657501</v>
+      </c>
+      <c r="N16" s="76">
+        <f t="shared" si="3"/>
+        <v>4.2520916897901995E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>0.53125389264616696</v>
+      </c>
+      <c r="D17">
+        <v>0.51699649641627199</v>
+      </c>
+      <c r="E17" s="76">
+        <f t="shared" si="0"/>
+        <v>1.425739622989497E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.51158359997490399</v>
+      </c>
+      <c r="G17">
+        <v>0.49195011411150702</v>
+      </c>
+      <c r="H17" s="76">
+        <f t="shared" si="1"/>
+        <v>1.9633485863396971E-2</v>
+      </c>
+      <c r="I17">
+        <v>0.30785219697389599</v>
+      </c>
+      <c r="J17">
+        <v>0.28183347451302898</v>
+      </c>
+      <c r="K17" s="76">
+        <f t="shared" si="2"/>
+        <v>2.6018722460867005E-2</v>
+      </c>
+      <c r="L17">
+        <v>0.29767862307823401</v>
+      </c>
+      <c r="M17">
+        <v>0.25168651505362299</v>
+      </c>
+      <c r="N17" s="76">
+        <f t="shared" si="3"/>
+        <v>4.5992108024611011E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18">
+        <v>0.82509938974490105</v>
+      </c>
+      <c r="D18">
+        <v>0.79021309619672497</v>
+      </c>
+      <c r="E18" s="76">
+        <f t="shared" si="0"/>
+        <v>3.4886293548176073E-2</v>
+      </c>
+      <c r="F18">
+        <v>0.80754406339209694</v>
+      </c>
+      <c r="G18">
+        <v>0.80442387051894604</v>
+      </c>
+      <c r="H18" s="76">
+        <f t="shared" si="1"/>
+        <v>3.1201928731509065E-3</v>
+      </c>
+      <c r="I18">
+        <v>0.52565017159149197</v>
+      </c>
+      <c r="J18">
+        <v>0.44804911056362401</v>
+      </c>
+      <c r="K18" s="76">
+        <f t="shared" si="2"/>
+        <v>7.7601061027867957E-2</v>
+      </c>
+      <c r="L18">
+        <v>0.51685903087438401</v>
+      </c>
+      <c r="M18">
+        <v>0.47308636581882801</v>
+      </c>
+      <c r="N18" s="76">
+        <f t="shared" si="3"/>
+        <v>4.3772665055555993E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>0.72772926385258896</v>
+      </c>
+      <c r="D19">
+        <v>0.69505057642837698</v>
+      </c>
+      <c r="E19" s="76">
+        <f t="shared" si="0"/>
+        <v>3.2678687424211983E-2</v>
+      </c>
+      <c r="F19">
+        <v>0.72107734130244805</v>
+      </c>
+      <c r="G19">
+        <v>0.67801254509926401</v>
+      </c>
+      <c r="H19" s="76">
+        <f t="shared" si="1"/>
+        <v>4.3064796203184041E-2</v>
+      </c>
+      <c r="I19">
+        <v>0.39996874558398798</v>
+      </c>
+      <c r="J19">
+        <v>0.36409671229579998</v>
+      </c>
+      <c r="K19" s="76">
+        <f t="shared" si="2"/>
+        <v>3.5872033288187999E-2</v>
+      </c>
+      <c r="L19">
+        <v>0.39684072921604302</v>
+      </c>
+      <c r="M19">
+        <v>0.36850068015058401</v>
+      </c>
+      <c r="N19" s="76">
+        <f t="shared" si="3"/>
+        <v>2.8340049065459005E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="F2:G2"/>
     <mergeCell ref="I2:J2"/>
+    <mergeCell ref="L2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exp1_5.xlsx
+++ b/exp1_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ne\OpenNE-master\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21E2BC95-0346-4A02-BA43-56CF69E20414}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1134A216-B980-4CB6-94D5-E9B10C244EEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6870" firstSheet="2" activeTab="8" xr2:uid="{10403AC5-A414-4897-83F9-EF63EFA0D64E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6870" firstSheet="3" activeTab="11" xr2:uid="{10403AC5-A414-4897-83F9-EF63EFA0D64E}"/>
   </bookViews>
   <sheets>
     <sheet name="第一阶段结果" sheetId="3" r:id="rId1"/>
@@ -23,6 +23,8 @@
     <sheet name="MHWalk" sheetId="11" r:id="rId8"/>
     <sheet name="sample" sheetId="12" r:id="rId9"/>
     <sheet name="lpwalk&amp;APP" sheetId="13" r:id="rId10"/>
+    <sheet name="vcsample" sheetId="14" r:id="rId11"/>
+    <sheet name="Sheet2" sheetId="15" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">blogcatalog!$A$2:$N$22</definedName>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="55">
   <si>
     <t>Micro-F1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +234,26 @@
   </si>
   <si>
     <t>差</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vc-APP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>APP (old)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vc-deepwalk</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>micro-F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>macro-F1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,7 +716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -948,6 +970,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2705,8 +2730,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5950492-1FEA-4A10-AF9D-8EF04C409C17}">
   <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11:W18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3495,12 +3520,497 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7269347-B3E6-4961-8526-5FB8672AAEB1}">
+  <dimension ref="A1:K4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1" s="84" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" t="s">
+        <v>52</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="77">
+        <v>0.74671968190854798</v>
+      </c>
+      <c r="C3">
+        <v>0.59880715705765397</v>
+      </c>
+      <c r="D3">
+        <v>0.66083499005964197</v>
+      </c>
+      <c r="E3">
+        <v>0.41351888667991998</v>
+      </c>
+      <c r="G3">
+        <v>0.49726968151442102</v>
+      </c>
+      <c r="H3">
+        <v>0.29515169495947802</v>
+      </c>
+      <c r="I3">
+        <v>0.38308804726726398</v>
+      </c>
+      <c r="J3">
+        <v>0.176681708661071</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="77">
+        <v>0.82880354505169795</v>
+      </c>
+      <c r="C4">
+        <v>0.42378138847858199</v>
+      </c>
+      <c r="D4">
+        <v>0.78596750369276203</v>
+      </c>
+      <c r="E4">
+        <v>0.71491875923190495</v>
+      </c>
+      <c r="G4" s="77">
+        <v>0.81952239852758302</v>
+      </c>
+      <c r="H4">
+        <v>0.28291065009708699</v>
+      </c>
+      <c r="I4">
+        <v>0.77870576870270702</v>
+      </c>
+      <c r="J4">
+        <v>0.69489086617306906</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58626CB4-CC4D-4606-B05C-8D8F09499962}">
+  <dimension ref="A1:L10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="8.6640625" style="77"/>
+    <col min="8" max="8" width="8.6640625" style="77"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C1" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="H1" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1" s="85"/>
+      <c r="J1" s="85"/>
+      <c r="K1" s="85"/>
+      <c r="L1" s="85"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="C2" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K2" t="s">
+        <v>52</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="77">
+        <v>0.82880354505169795</v>
+      </c>
+      <c r="D3">
+        <v>0.42378138847858199</v>
+      </c>
+      <c r="E3">
+        <v>0.78596750369276203</v>
+      </c>
+      <c r="F3">
+        <v>0.70236336779911301</v>
+      </c>
+      <c r="G3">
+        <v>0.75376661742983697</v>
+      </c>
+      <c r="H3" s="77">
+        <v>0.81952239852758302</v>
+      </c>
+      <c r="I3">
+        <v>0.28291065009708699</v>
+      </c>
+      <c r="J3">
+        <v>0.77870576870270702</v>
+      </c>
+      <c r="K3">
+        <v>0.68125595099716196</v>
+      </c>
+      <c r="L3">
+        <v>0.739268159049292</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="77">
+        <v>0.72977922783067295</v>
+      </c>
+      <c r="D4">
+        <v>0.35215487931615402</v>
+      </c>
+      <c r="E4">
+        <v>0.67386001806988804</v>
+      </c>
+      <c r="F4">
+        <v>0.59838963518770605</v>
+      </c>
+      <c r="G4">
+        <v>0.63494042602559597</v>
+      </c>
+      <c r="H4" s="77">
+        <v>0.70408291628666098</v>
+      </c>
+      <c r="I4">
+        <v>0.12311373752609001</v>
+      </c>
+      <c r="J4">
+        <v>0.64878658816524803</v>
+      </c>
+      <c r="K4">
+        <v>0.56262515056745599</v>
+      </c>
+      <c r="L4">
+        <v>0.59990487509144896</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="77">
+        <v>0.85530507802635702</v>
+      </c>
+      <c r="D5">
+        <v>0.42585215754251499</v>
+      </c>
+      <c r="E5">
+        <v>0.811228353509717</v>
+      </c>
+      <c r="F5">
+        <v>0.72127897638781402</v>
+      </c>
+      <c r="G5">
+        <v>0.78101804276742504</v>
+      </c>
+      <c r="H5" s="77">
+        <v>0.84585483949117501</v>
+      </c>
+      <c r="I5">
+        <v>0.26732750464143401</v>
+      </c>
+      <c r="J5">
+        <v>0.80147889571543396</v>
+      </c>
+      <c r="K5">
+        <v>0.70033971518079796</v>
+      </c>
+      <c r="L5">
+        <v>0.76511666968231995</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="77">
+        <v>0.84890881877135005</v>
+      </c>
+      <c r="D6">
+        <v>0.492154094360299</v>
+      </c>
+      <c r="E6">
+        <v>0.82430045357413195</v>
+      </c>
+      <c r="F6">
+        <v>0.74733422966569596</v>
+      </c>
+      <c r="G6">
+        <v>0.78977432133195602</v>
+      </c>
+      <c r="H6" s="77">
+        <v>0.83760636747587003</v>
+      </c>
+      <c r="I6">
+        <v>0.40517742243805399</v>
+      </c>
+      <c r="J6">
+        <v>0.81646235849368498</v>
+      </c>
+      <c r="K6">
+        <v>0.72183196034679498</v>
+      </c>
+      <c r="L6">
+        <v>0.78150884102469997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="77">
+        <v>0.74671968190854798</v>
+      </c>
+      <c r="D7">
+        <v>0.59880715705765397</v>
+      </c>
+      <c r="E7">
+        <v>0.66083499005964197</v>
+      </c>
+      <c r="F7">
+        <v>0.43220675944333897</v>
+      </c>
+      <c r="G7">
+        <v>0.582504970178926</v>
+      </c>
+      <c r="H7" s="77">
+        <v>0.49726968151442102</v>
+      </c>
+      <c r="I7">
+        <v>0.29515169495947802</v>
+      </c>
+      <c r="J7">
+        <v>0.38308804726726398</v>
+      </c>
+      <c r="K7">
+        <v>0.199157322417266</v>
+      </c>
+      <c r="L7" s="77">
+        <v>0.311341473296605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="77">
+        <v>0.53125389264616696</v>
+      </c>
+      <c r="D8">
+        <v>0.33676510420940697</v>
+      </c>
+      <c r="E8">
+        <v>0.50907811286035798</v>
+      </c>
+      <c r="F8">
+        <v>0.23912805199933901</v>
+      </c>
+      <c r="G8">
+        <v>0.448082815773098</v>
+      </c>
+      <c r="H8" s="77">
+        <v>0.30785219697389599</v>
+      </c>
+      <c r="I8">
+        <v>0.136189803022187</v>
+      </c>
+      <c r="J8">
+        <v>0.25882715320741501</v>
+      </c>
+      <c r="K8">
+        <v>8.7896078326069105E-2</v>
+      </c>
+      <c r="L8" s="77">
+        <v>0.22636436183404601</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="77">
+        <v>0.82509938974490105</v>
+      </c>
+      <c r="D9">
+        <v>0.68402459198753895</v>
+      </c>
+      <c r="E9">
+        <v>0.737380145773879</v>
+      </c>
+      <c r="F9">
+        <v>0.51554112565629795</v>
+      </c>
+      <c r="G9">
+        <v>0.66387075695602205</v>
+      </c>
+      <c r="H9" s="77">
+        <v>0.52565017159149197</v>
+      </c>
+      <c r="I9">
+        <v>0.31626224410891102</v>
+      </c>
+      <c r="J9">
+        <v>0.40914270656080198</v>
+      </c>
+      <c r="K9">
+        <v>0.23014767683111101</v>
+      </c>
+      <c r="L9" s="77">
+        <v>0.34110345168320499</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="77">
+        <v>0.72772926385258896</v>
+      </c>
+      <c r="D10">
+        <v>0.60333033124126101</v>
+      </c>
+      <c r="E10">
+        <v>0.56366426534670599</v>
+      </c>
+      <c r="F10">
+        <v>0.36900349332172</v>
+      </c>
+      <c r="G10">
+        <v>0.45868767020912099</v>
+      </c>
+      <c r="H10" s="77">
+        <v>0.39996874558398798</v>
+      </c>
+      <c r="I10">
+        <v>0.258535303250016</v>
+      </c>
+      <c r="J10">
+        <v>0.284529219654164</v>
+      </c>
+      <c r="K10">
+        <v>0.13650729975784701</v>
+      </c>
+      <c r="L10" s="77">
+        <v>0.17753088437366801</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B347C101-9C8B-4008-AD32-255FD7B05A66}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection sqref="A1:P26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -9647,8 +10157,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{255F4C15-D24E-485B-9D42-BDBC9872DBFC}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/exp1_5.xlsx
+++ b/exp1_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ne\OpenNE-master\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1134A216-B980-4CB6-94D5-E9B10C244EEB}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6755508C-AA2F-4AEA-8636-EA2E5A7A8F32}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6870" firstSheet="3" activeTab="11" xr2:uid="{10403AC5-A414-4897-83F9-EF63EFA0D64E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6870" firstSheet="4" activeTab="10" xr2:uid="{10403AC5-A414-4897-83F9-EF63EFA0D64E}"/>
   </bookViews>
   <sheets>
     <sheet name="第一阶段结果" sheetId="3" r:id="rId1"/>
@@ -23,8 +23,7 @@
     <sheet name="MHWalk" sheetId="11" r:id="rId8"/>
     <sheet name="sample" sheetId="12" r:id="rId9"/>
     <sheet name="lpwalk&amp;APP" sheetId="13" r:id="rId10"/>
-    <sheet name="vcsample" sheetId="14" r:id="rId11"/>
-    <sheet name="Sheet2" sheetId="15" r:id="rId12"/>
+    <sheet name="vcsample" sheetId="15" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">blogcatalog!$A$2:$N$22</definedName>
@@ -42,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="55">
   <si>
     <t>Micro-F1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,10 +240,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>APP (old)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>vc-deepwalk</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -254,6 +249,10 @@
   </si>
   <si>
     <t>macro-F1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blogcatalog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2731,7 +2730,7 @@
   <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:W18"/>
+      <selection activeCell="P11" sqref="P11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3521,138 +3520,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7269347-B3E6-4961-8526-5FB8672AAEB1}">
-  <dimension ref="A1:K4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B1" s="84" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="84"/>
-      <c r="D1" s="84"/>
-      <c r="E1" s="84"/>
-      <c r="F1" s="84"/>
-      <c r="G1" s="84" t="s">
-        <v>40</v>
-      </c>
-      <c r="H1" s="84"/>
-      <c r="I1" s="84"/>
-      <c r="J1" s="84"/>
-      <c r="K1" s="84"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>2</v>
-      </c>
-      <c r="I2" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" t="s">
-        <v>52</v>
-      </c>
-      <c r="K2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="77">
-        <v>0.74671968190854798</v>
-      </c>
-      <c r="C3">
-        <v>0.59880715705765397</v>
-      </c>
-      <c r="D3">
-        <v>0.66083499005964197</v>
-      </c>
-      <c r="E3">
-        <v>0.41351888667991998</v>
-      </c>
-      <c r="G3">
-        <v>0.49726968151442102</v>
-      </c>
-      <c r="H3">
-        <v>0.29515169495947802</v>
-      </c>
-      <c r="I3">
-        <v>0.38308804726726398</v>
-      </c>
-      <c r="J3">
-        <v>0.176681708661071</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="77">
-        <v>0.82880354505169795</v>
-      </c>
-      <c r="C4">
-        <v>0.42378138847858199</v>
-      </c>
-      <c r="D4">
-        <v>0.78596750369276203</v>
-      </c>
-      <c r="E4">
-        <v>0.71491875923190495</v>
-      </c>
-      <c r="G4" s="77">
-        <v>0.81952239852758302</v>
-      </c>
-      <c r="H4">
-        <v>0.28291065009708699</v>
-      </c>
-      <c r="I4">
-        <v>0.77870576870270702</v>
-      </c>
-      <c r="J4">
-        <v>0.69489086617306906</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="G1:K1"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58626CB4-CC4D-4606-B05C-8D8F09499962}">
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -3663,14 +3535,14 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C1" s="85" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D1" s="85"/>
       <c r="E1" s="85"/>
       <c r="F1" s="85"/>
       <c r="G1" s="85"/>
       <c r="H1" s="85" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I1" s="85"/>
       <c r="J1" s="85"/>
@@ -3688,7 +3560,7 @@
         <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G2" t="s">
         <v>50</v>
@@ -3703,7 +3575,7 @@
         <v>46</v>
       </c>
       <c r="K2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
         <v>50</v>
@@ -3711,183 +3583,183 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="77">
-        <v>0.82880354505169795</v>
+      <c r="C3">
+        <v>0.39296294772479701</v>
       </c>
       <c r="D3">
-        <v>0.42378138847858199</v>
+        <v>0.35681739705145699</v>
       </c>
       <c r="E3">
-        <v>0.78596750369276203</v>
+        <v>0.25065459728869099</v>
       </c>
       <c r="F3">
-        <v>0.70236336779911301</v>
+        <v>0.13866194879959701</v>
       </c>
       <c r="G3">
-        <v>0.75376661742983697</v>
-      </c>
-      <c r="H3" s="77">
-        <v>0.81952239852758302</v>
+        <v>0.160724559841215</v>
+      </c>
+      <c r="H3">
+        <v>0.25130046657392502</v>
       </c>
       <c r="I3">
-        <v>0.28291065009708699</v>
+        <v>0.19580386677929501</v>
       </c>
       <c r="J3">
-        <v>0.77870576870270702</v>
+        <v>0.12599664240356601</v>
       </c>
       <c r="K3">
-        <v>0.68125595099716196</v>
+        <v>4.97566050761774E-2</v>
       </c>
       <c r="L3">
-        <v>0.739268159049292</v>
+        <v>5.96281426071937E-2</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="77">
-        <v>0.72977922783067295</v>
+      <c r="C4">
+        <v>0.33629482636451402</v>
       </c>
       <c r="D4">
-        <v>0.35215487931615402</v>
+        <v>0.31467942145126798</v>
       </c>
       <c r="E4">
-        <v>0.67386001806988804</v>
+        <v>0.258588625098367</v>
       </c>
       <c r="F4">
-        <v>0.59838963518770605</v>
+        <v>9.9319489934864502E-2</v>
       </c>
       <c r="G4">
-        <v>0.63494042602559597</v>
-      </c>
-      <c r="H4" s="77">
-        <v>0.70408291628666098</v>
+        <v>0.19501966850859301</v>
+      </c>
+      <c r="H4">
+        <v>0.20514765322922399</v>
       </c>
       <c r="I4">
-        <v>0.12311373752609001</v>
+        <v>0.13522834498781799</v>
       </c>
       <c r="J4">
-        <v>0.64878658816524803</v>
+        <v>0.11208854869436401</v>
       </c>
       <c r="K4">
-        <v>0.56262515056745599</v>
+        <v>4.7276712905582802E-2</v>
       </c>
       <c r="L4">
-        <v>0.59990487509144896</v>
+        <v>6.2752400940664602E-2</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="77">
-        <v>0.85530507802635702</v>
+      <c r="C5">
+        <v>0.40079565744179602</v>
       </c>
       <c r="D5">
-        <v>0.42585215754251499</v>
+        <v>0.35842584336365602</v>
       </c>
       <c r="E5">
-        <v>0.811228353509717</v>
+        <v>0.24749806312410499</v>
       </c>
       <c r="F5">
-        <v>0.72127897638781402</v>
+        <v>0.13353503403398201</v>
       </c>
       <c r="G5">
-        <v>0.78101804276742504</v>
-      </c>
-      <c r="H5" s="77">
-        <v>0.84585483949117501</v>
+        <v>0.15236718533697399</v>
+      </c>
+      <c r="H5">
+        <v>0.26058560652817497</v>
       </c>
       <c r="I5">
-        <v>0.26732750464143401</v>
+        <v>0.19436882452036999</v>
       </c>
       <c r="J5">
-        <v>0.80147889571543396</v>
+        <v>0.125235557392888</v>
       </c>
       <c r="K5">
-        <v>0.70033971518079796</v>
-      </c>
-      <c r="L5">
-        <v>0.76511666968231995</v>
+        <v>4.7827361995866902E-2</v>
+      </c>
+      <c r="L5" s="77">
+        <v>5.6035434814145899E-2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="77">
-        <v>0.84890881877135005</v>
+      <c r="C6">
+        <v>0.41779120934919101</v>
       </c>
       <c r="D6">
-        <v>0.492154094360299</v>
+        <v>0.38605386967424099</v>
       </c>
       <c r="E6">
-        <v>0.82430045357413195</v>
+        <v>0.25287240046086901</v>
       </c>
       <c r="F6">
-        <v>0.74733422966569596</v>
+        <v>0.18232422417750599</v>
       </c>
       <c r="G6">
-        <v>0.78977432133195602</v>
-      </c>
-      <c r="H6" s="77">
-        <v>0.83760636747587003</v>
+        <v>0.15596847055935401</v>
+      </c>
+      <c r="H6">
+        <v>0.243577536209579</v>
       </c>
       <c r="I6">
-        <v>0.40517742243805399</v>
+        <v>0.222561524081656</v>
       </c>
       <c r="J6">
-        <v>0.81646235849368498</v>
+        <v>0.128310990221122</v>
       </c>
       <c r="K6">
-        <v>0.72183196034679498</v>
-      </c>
-      <c r="L6">
-        <v>0.78150884102469997</v>
+        <v>4.4635415847203999E-2</v>
+      </c>
+      <c r="L6" s="77">
+        <v>5.7110156319955203E-2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="77">
-        <v>0.74671968190854798</v>
+        <v>0.82880354505169795</v>
       </c>
       <c r="D7">
-        <v>0.59880715705765397</v>
+        <v>0.42378138847858199</v>
       </c>
       <c r="E7">
-        <v>0.66083499005964197</v>
+        <v>0.78596750369276203</v>
       </c>
       <c r="F7">
-        <v>0.43220675944333897</v>
+        <v>0.70236336779911301</v>
       </c>
       <c r="G7">
-        <v>0.582504970178926</v>
+        <v>0.75376661742983697</v>
       </c>
       <c r="H7" s="77">
-        <v>0.49726968151442102</v>
+        <v>0.81952239852758302</v>
       </c>
       <c r="I7">
-        <v>0.29515169495947802</v>
+        <v>0.28291065009708699</v>
       </c>
       <c r="J7">
-        <v>0.38308804726726398</v>
+        <v>0.77870576870270702</v>
       </c>
       <c r="K7">
-        <v>0.199157322417266</v>
-      </c>
-      <c r="L7" s="77">
-        <v>0.311341473296605</v>
+        <v>0.68125595099716196</v>
+      </c>
+      <c r="L7">
+        <v>0.739268159049292</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.3">
@@ -3895,34 +3767,34 @@
         <v>29</v>
       </c>
       <c r="C8" s="77">
-        <v>0.53125389264616696</v>
+        <v>0.72977922783067295</v>
       </c>
       <c r="D8">
-        <v>0.33676510420940697</v>
+        <v>0.35215487931615402</v>
       </c>
       <c r="E8">
-        <v>0.50907811286035798</v>
+        <v>0.67386001806988804</v>
       </c>
       <c r="F8">
-        <v>0.23912805199933901</v>
+        <v>0.59838963518770605</v>
       </c>
       <c r="G8">
-        <v>0.448082815773098</v>
+        <v>0.63494042602559597</v>
       </c>
       <c r="H8" s="77">
-        <v>0.30785219697389599</v>
+        <v>0.70408291628666098</v>
       </c>
       <c r="I8">
-        <v>0.136189803022187</v>
+        <v>0.12311373752609001</v>
       </c>
       <c r="J8">
-        <v>0.25882715320741501</v>
+        <v>0.64878658816524803</v>
       </c>
       <c r="K8">
-        <v>8.7896078326069105E-2</v>
-      </c>
-      <c r="L8" s="77">
-        <v>0.22636436183404601</v>
+        <v>0.56262515056745599</v>
+      </c>
+      <c r="L8">
+        <v>0.59990487509144896</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -3930,34 +3802,34 @@
         <v>30</v>
       </c>
       <c r="C9" s="77">
-        <v>0.82509938974490105</v>
+        <v>0.85530507802635702</v>
       </c>
       <c r="D9">
-        <v>0.68402459198753895</v>
+        <v>0.42585215754251499</v>
       </c>
       <c r="E9">
-        <v>0.737380145773879</v>
+        <v>0.811228353509717</v>
       </c>
       <c r="F9">
-        <v>0.51554112565629795</v>
+        <v>0.72127897638781402</v>
       </c>
       <c r="G9">
-        <v>0.66387075695602205</v>
+        <v>0.78101804276742504</v>
       </c>
       <c r="H9" s="77">
-        <v>0.52565017159149197</v>
+        <v>0.84585483949117501</v>
       </c>
       <c r="I9">
-        <v>0.31626224410891102</v>
+        <v>0.26732750464143401</v>
       </c>
       <c r="J9">
-        <v>0.40914270656080198</v>
+        <v>0.80147889571543396</v>
       </c>
       <c r="K9">
-        <v>0.23014767683111101</v>
-      </c>
-      <c r="L9" s="77">
-        <v>0.34110345168320499</v>
+        <v>0.70033971518079796</v>
+      </c>
+      <c r="L9">
+        <v>0.76511666968231995</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
@@ -3965,35 +3837,181 @@
         <v>31</v>
       </c>
       <c r="C10" s="77">
+        <v>0.84890881877135005</v>
+      </c>
+      <c r="D10">
+        <v>0.492154094360299</v>
+      </c>
+      <c r="E10">
+        <v>0.82430045357413195</v>
+      </c>
+      <c r="F10">
+        <v>0.74733422966569596</v>
+      </c>
+      <c r="G10">
+        <v>0.78977432133195602</v>
+      </c>
+      <c r="H10" s="77">
+        <v>0.83760636747587003</v>
+      </c>
+      <c r="I10">
+        <v>0.40517742243805399</v>
+      </c>
+      <c r="J10">
+        <v>0.81646235849368498</v>
+      </c>
+      <c r="K10">
+        <v>0.72183196034679498</v>
+      </c>
+      <c r="L10">
+        <v>0.78150884102469997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="77">
+        <v>0.74671968190854798</v>
+      </c>
+      <c r="D11">
+        <v>0.59880715705765397</v>
+      </c>
+      <c r="E11">
+        <v>0.66083499005964197</v>
+      </c>
+      <c r="F11">
+        <v>0.43220675944333897</v>
+      </c>
+      <c r="G11">
+        <v>0.582504970178926</v>
+      </c>
+      <c r="H11" s="77">
+        <v>0.49726968151442102</v>
+      </c>
+      <c r="I11">
+        <v>0.29515169495947802</v>
+      </c>
+      <c r="J11">
+        <v>0.38308804726726398</v>
+      </c>
+      <c r="K11">
+        <v>0.199157322417266</v>
+      </c>
+      <c r="L11" s="77">
+        <v>0.311341473296605</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="77">
+        <v>0.53125389264616696</v>
+      </c>
+      <c r="D12">
+        <v>0.33676510420940697</v>
+      </c>
+      <c r="E12">
+        <v>0.50907811286035798</v>
+      </c>
+      <c r="F12">
+        <v>0.23912805199933901</v>
+      </c>
+      <c r="G12">
+        <v>0.448082815773098</v>
+      </c>
+      <c r="H12" s="77">
+        <v>0.30785219697389599</v>
+      </c>
+      <c r="I12">
+        <v>0.136189803022187</v>
+      </c>
+      <c r="J12">
+        <v>0.25882715320741501</v>
+      </c>
+      <c r="K12">
+        <v>8.7896078326069105E-2</v>
+      </c>
+      <c r="L12" s="77">
+        <v>0.22636436183404601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="77">
+        <v>0.82509938974490105</v>
+      </c>
+      <c r="D13">
+        <v>0.68402459198753895</v>
+      </c>
+      <c r="E13">
+        <v>0.737380145773879</v>
+      </c>
+      <c r="F13">
+        <v>0.51554112565629795</v>
+      </c>
+      <c r="G13">
+        <v>0.66387075695602205</v>
+      </c>
+      <c r="H13" s="77">
+        <v>0.52565017159149197</v>
+      </c>
+      <c r="I13">
+        <v>0.31626224410891102</v>
+      </c>
+      <c r="J13">
+        <v>0.40914270656080198</v>
+      </c>
+      <c r="K13">
+        <v>0.23014767683111101</v>
+      </c>
+      <c r="L13" s="77">
+        <v>0.34110345168320499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" s="77">
         <v>0.72772926385258896</v>
       </c>
-      <c r="D10">
+      <c r="D14">
         <v>0.60333033124126101</v>
       </c>
-      <c r="E10">
+      <c r="E14">
         <v>0.56366426534670599</v>
       </c>
-      <c r="F10">
+      <c r="F14">
         <v>0.36900349332172</v>
       </c>
-      <c r="G10">
+      <c r="G14">
         <v>0.45868767020912099</v>
       </c>
-      <c r="H10" s="77">
+      <c r="H14" s="77">
         <v>0.39996874558398798</v>
       </c>
-      <c r="I10">
+      <c r="I14">
         <v>0.258535303250016</v>
       </c>
-      <c r="J10">
+      <c r="J14">
         <v>0.284529219654164</v>
       </c>
-      <c r="K10">
+      <c r="K14">
         <v>0.13650729975784701</v>
       </c>
-      <c r="L10" s="77">
+      <c r="L14" s="77">
         <v>0.17753088437366801</v>
       </c>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/exp1_5.xlsx
+++ b/exp1_5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ne\OpenNE-master\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6755508C-AA2F-4AEA-8636-EA2E5A7A8F32}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFB548D-D5B5-4DF9-8045-7DA4801E9CDC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6870" firstSheet="4" activeTab="10" xr2:uid="{10403AC5-A414-4897-83F9-EF63EFA0D64E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="11" xr2:uid="{10403AC5-A414-4897-83F9-EF63EFA0D64E}"/>
   </bookViews>
   <sheets>
     <sheet name="第一阶段结果" sheetId="3" r:id="rId1"/>
@@ -23,7 +23,8 @@
     <sheet name="MHWalk" sheetId="11" r:id="rId8"/>
     <sheet name="sample" sheetId="12" r:id="rId9"/>
     <sheet name="lpwalk&amp;APP" sheetId="13" r:id="rId10"/>
-    <sheet name="vcsample" sheetId="15" r:id="rId11"/>
+    <sheet name="vcsample_old" sheetId="15" r:id="rId11"/>
+    <sheet name="vcsample_fixed" sheetId="16" r:id="rId12"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">blogcatalog!$A$2:$N$22</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="56">
   <si>
     <t>Micro-F1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -253,6 +254,10 @@
   </si>
   <si>
     <t>blogcatalog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>filckr</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3523,8 +3528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58626CB4-CC4D-4606-B05C-8D8F09499962}">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="A1:L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4023,12 +4028,113 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6482D129-4326-456D-BEBD-FF54CC649A07}">
+  <dimension ref="A1:E6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="E1" s="85"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B2" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D2" s="77" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="77">
+        <v>0.40383864523799601</v>
+      </c>
+      <c r="D3">
+        <v>0.28235729608038901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4">
+        <v>0.39296294772479701</v>
+      </c>
+      <c r="D4">
+        <v>0.25130046657392502</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="77">
+        <v>0.82880354505169795</v>
+      </c>
+      <c r="C5">
+        <v>0.81383748994368399</v>
+      </c>
+      <c r="D5" s="77">
+        <v>0.81952239852758302</v>
+      </c>
+      <c r="E5">
+        <v>0.80258998480661303</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="77">
+        <v>0.74671968190854798</v>
+      </c>
+      <c r="C6">
+        <v>0.72048681541582105</v>
+      </c>
+      <c r="D6" s="77">
+        <v>0.49726968151442102</v>
+      </c>
+      <c r="E6">
+        <v>0.44374803167983701</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B347C101-9C8B-4008-AD32-255FD7B05A66}">
   <dimension ref="A1:P26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>

--- a/exp1_5.xlsx
+++ b/exp1_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ne\OpenNE-master\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBFB548D-D5B5-4DF9-8045-7DA4801E9CDC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44147A24-1498-4395-A4AE-A2B0970E7D39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="11" xr2:uid="{10403AC5-A414-4897-83F9-EF63EFA0D64E}"/>
   </bookViews>
@@ -2384,7 +2384,7 @@
   <dimension ref="A1:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:D7"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4033,7 +4033,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4069,8 +4069,14 @@
       <c r="B3" s="77">
         <v>0.40383864523799601</v>
       </c>
+      <c r="C3">
+        <v>0.298583817566414</v>
+      </c>
       <c r="D3">
         <v>0.28235729608038901</v>
+      </c>
+      <c r="E3">
+        <v>0.120913672911331</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -4080,8 +4086,14 @@
       <c r="B4">
         <v>0.39296294772479701</v>
       </c>
+      <c r="C4">
+        <v>0.28600700406305601</v>
+      </c>
       <c r="D4">
         <v>0.25130046657392502</v>
+      </c>
+      <c r="E4">
+        <v>0.15029127821923399</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">

--- a/exp1_5.xlsx
+++ b/exp1_5.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ne\OpenNE-master\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44147A24-1498-4395-A4AE-A2B0970E7D39}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82E6DFF-8E09-4862-A76F-72E26AF008F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="5" activeTab="11" xr2:uid="{10403AC5-A414-4897-83F9-EF63EFA0D64E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="12" xr2:uid="{10403AC5-A414-4897-83F9-EF63EFA0D64E}"/>
   </bookViews>
   <sheets>
     <sheet name="第一阶段结果" sheetId="3" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="lpwalk&amp;APP" sheetId="13" r:id="rId10"/>
     <sheet name="vcsample_old" sheetId="15" r:id="rId11"/>
     <sheet name="vcsample_fixed" sheetId="16" r:id="rId12"/>
+    <sheet name="combine" sheetId="17" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">blogcatalog!$A$2:$N$22</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="59">
   <si>
     <t>Micro-F1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -258,6 +259,18 @@
   </si>
   <si>
     <t>filckr</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混合：按deepwalk占比区分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cora</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>link prediction保留50%边，取5个function最好的一个</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4032,7 +4045,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6482D129-4326-456D-BEBD-FF54CC649A07}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -4134,6 +4147,200 @@
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38965631-2694-45BE-94EC-6E47825AEB06}">
+  <dimension ref="A1:P5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L5" sqref="L5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B1" s="84" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" s="84"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84" t="s">
+        <v>53</v>
+      </c>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84" t="s">
+        <v>58</v>
+      </c>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D2" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="I2" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="N2" s="84" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="84"/>
+      <c r="P2" s="84"/>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.8</v>
+      </c>
+      <c r="F3">
+        <v>0.9</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>0.5</v>
+      </c>
+      <c r="J3">
+        <v>0.8</v>
+      </c>
+      <c r="K3">
+        <v>0.9</v>
+      </c>
+      <c r="L3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3">
+        <v>0.5</v>
+      </c>
+      <c r="O3">
+        <v>0.8</v>
+      </c>
+      <c r="P3">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>0.50588235294117601</v>
+      </c>
+      <c r="C4" s="76">
+        <v>0.73103448275862004</v>
+      </c>
+      <c r="D4">
+        <v>0.675456389452332</v>
+      </c>
+      <c r="E4">
+        <v>0.69330628803245398</v>
+      </c>
+      <c r="F4">
+        <v>0.71075050709939103</v>
+      </c>
+      <c r="G4">
+        <v>0.22816785579741</v>
+      </c>
+      <c r="H4" s="76">
+        <v>0.45969591027303802</v>
+      </c>
+      <c r="I4">
+        <v>0.359714483863664</v>
+      </c>
+      <c r="J4">
+        <v>0.421228779051038</v>
+      </c>
+      <c r="K4">
+        <v>0.42915295531464898</v>
+      </c>
+      <c r="L4">
+        <v>0.84360000000000002</v>
+      </c>
+      <c r="M4" s="76">
+        <v>0.90690000000000004</v>
+      </c>
+      <c r="N4">
+        <v>0.88719999999999999</v>
+      </c>
+      <c r="O4">
+        <v>0.89859999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5">
+        <v>0.76469719350073795</v>
+      </c>
+      <c r="C5">
+        <v>0.80147710487444601</v>
+      </c>
+      <c r="D5">
+        <v>0.81669128508124</v>
+      </c>
+      <c r="E5" s="76">
+        <v>0.82289512555391398</v>
+      </c>
+      <c r="F5">
+        <v>0.80546528803545003</v>
+      </c>
+      <c r="G5">
+        <v>0.753645128387467</v>
+      </c>
+      <c r="H5">
+        <v>0.79208150327522397</v>
+      </c>
+      <c r="I5">
+        <v>0.80705620445803905</v>
+      </c>
+      <c r="J5" s="76">
+        <v>0.81460106070390004</v>
+      </c>
+      <c r="K5">
+        <v>0.794523457786252</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:K1"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="L1:P1"/>
+    <mergeCell ref="N2:P2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/exp1_5.xlsx
+++ b/exp1_5.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ne\OpenNE-master\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A82E6DFF-8E09-4862-A76F-72E26AF008F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF72CFE4-533F-4469-9AA4-A0E660EA07C3}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" firstSheet="7" activeTab="12" xr2:uid="{10403AC5-A414-4897-83F9-EF63EFA0D64E}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="60">
   <si>
     <t>Micro-F1</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -271,6 +271,10 @@
   </si>
   <si>
     <t>link prediction保留50%边，取5个function最好的一个</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blogcatalog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4156,10 +4160,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38965631-2694-45BE-94EC-6E47825AEB06}">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -4303,34 +4307,99 @@
         <v>57</v>
       </c>
       <c r="B5">
-        <v>0.76469719350073795</v>
+        <v>0.77795655671761799</v>
       </c>
       <c r="C5">
-        <v>0.80147710487444601</v>
+        <v>0.81255028157682996</v>
       </c>
       <c r="D5">
-        <v>0.81669128508124</v>
+        <v>0.82912308930008005</v>
       </c>
       <c r="E5" s="76">
-        <v>0.82289512555391398</v>
+        <v>0.82558326629123102</v>
       </c>
       <c r="F5">
-        <v>0.80546528803545003</v>
+        <v>0.81834271922767399</v>
       </c>
       <c r="G5">
-        <v>0.753645128387467</v>
+        <v>0.76346654119677504</v>
       </c>
       <c r="H5">
-        <v>0.79208150327522397</v>
+        <v>0.79982937958053502</v>
       </c>
       <c r="I5">
-        <v>0.80705620445803905</v>
+        <v>0.81278239665771201</v>
       </c>
       <c r="J5" s="76">
-        <v>0.81460106070390004</v>
+        <v>0.81464957683366501</v>
       </c>
       <c r="K5">
-        <v>0.794523457786252</v>
+        <v>0.80008474794669704</v>
+      </c>
+      <c r="L5">
+        <v>0.70430000000000004</v>
+      </c>
+      <c r="M5">
+        <v>0.78459999999999996</v>
+      </c>
+      <c r="N5">
+        <v>0.74360000000000004</v>
+      </c>
+      <c r="O5">
+        <v>0.78059999999999996</v>
+      </c>
+      <c r="P5" s="76">
+        <v>0.78710000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>0.210143805424921</v>
+      </c>
+      <c r="C6" s="76">
+        <v>0.31211378844008603</v>
+      </c>
+      <c r="D6">
+        <v>0.27955252517034201</v>
+      </c>
+      <c r="E6">
+        <v>0.29050697489300398</v>
+      </c>
+      <c r="F6">
+        <v>0.29121714081596201</v>
+      </c>
+      <c r="G6">
+        <v>6.0067587343328697E-2</v>
+      </c>
+      <c r="H6" s="76">
+        <v>0.17129892208077699</v>
+      </c>
+      <c r="I6">
+        <v>0.14021868597544301</v>
+      </c>
+      <c r="J6">
+        <v>0.150903788483466</v>
+      </c>
+      <c r="K6">
+        <v>0.150378869574957</v>
+      </c>
+      <c r="L6">
+        <v>0.83040000000000003</v>
+      </c>
+      <c r="M6" s="76">
+        <v>0.94159999999999999</v>
+      </c>
+      <c r="N6">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="O6">
+        <v>0.92430000000000001</v>
+      </c>
+      <c r="P6">
+        <v>0.92549999999999999</v>
       </c>
     </row>
   </sheetData>
